--- a/story/Activity Story 活动剧情/act11d7 Heart of Surging Flame Reruns 蓝火之心复刻 青く燃ゆる心 ライト版/level_act11d7_st01.xlsx
+++ b/story/Activity Story 活动剧情/act11d7 Heart of Surging Flame Reruns 蓝火之心复刻 青く燃ゆる心 ライト版/level_act11d7_st01.xlsx
@@ -3808,7 +3808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Cutter"]  I actually remember what he was yelling: “I’m the one who drank your smoothie!”
+    <t xml:space="preserve">[name="Cutter"]  I actually remember what he was yelling: 'I’m the one who drank your smoothie!'
 </t>
   </si>
   <si>
@@ -4008,7 +4008,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beeswax"]  Is she not? Ifrit sometimes calls people “dumbasses,” but I understand that this is also a compliment.
+    <t xml:space="preserve">[name="Beeswax"]  Is she not? Ifrit sometimes calls people 'dumbasses,' but I understand that this is also a compliment.
 </t>
   </si>
   <si>
@@ -4384,7 +4384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  “I’ve heard the ripples of your falling tears~♪ Your darkest nightmares, your deepest fears~♪ Your heart cracked into petals of blood...♪”
+    <t xml:space="preserve">[name="Aya"]  'I’ve heard the ripples of your falling tears~♪ Your darkest nightmares, your deepest fears~♪ Your heart cracked into petals of blood...♪'
 </t>
   </si>
   <si>
@@ -4420,11 +4420,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">“The disguise fell off when I remembered, the scar you left me is the pain you forgot~♪
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To chase after your shadow, is to chase after naught~♪ With thund’rous voices they’ll rise and call your name~♪ And when they catch your scent, they’ll demand to hear your shame~♪” 
+    <t xml:space="preserve">'The disguise fell off when I remembered, the scar you left me is the pain you forgot~♪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To chase after your shadow, is to chase after naught~♪ With thund’rous voices they’ll rise and call your name~♪ And when they catch your scent, they’ll demand to hear your shame~♪' 
 </t>
   </si>
   <si>
@@ -4804,7 +4804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="쏜즈"]  그리고 사무실에서 이렇게 계속 크게 음악을 틀었다간, 10초 후에 옆방 엔지니어부에서 쳐들어와서 네 스피커를 박살 내 버릴 테니 알고 있어라.
+    <t xml:space="preserve">[name="쏜즈"]  그리고 사무실에서 이렇게 계속 크게 음악을 틀었다간, 10초 후에 옆방 엔지니어링부에서 쳐들어와서 네 스피커를 박살 내 버릴 테니 알고 있어라.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d7 Heart of Surging Flame Reruns 蓝火之心复刻 青く燃ゆる心 ライト版/level_act11d7_st01.xlsx
+++ b/story/Activity Story 活动剧情/act11d7 Heart of Surging Flame Reruns 蓝火之心复刻 青く燃ゆる心 ライト版/level_act11d7_st01.xlsx
@@ -3140,7 +3140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Hello? Excuse me? Is anyone home? There’s no way you’d be refusing to pick up again, right?
+    <t xml:space="preserve">[name="Elysium"]  Hello? Excuse me? Is anyone home? There's no way you'd be refusing to pick up again, right?
 </t>
   </si>
   <si>
@@ -3152,11 +3152,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  You should’ve made it over there already, yeah? So, how’s Siesta?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Get a load of this. The Doctor said it’s so hot over there, people sometimes pass out on the streets. Then, they get woken up later with free beer. That true?
+    <t xml:space="preserve">[name="Elysium"]  You should've made it over there already, yeah? So, how's Siesta?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Get a load of this. The Doctor said it's so hot over there, people sometimes pass out on the streets. Then, they get woken up later with free beer. That true?
 </t>
   </si>
   <si>
@@ -3168,15 +3168,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  If you have something to say, spit it out already. Otherwise, I’m hanging up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Wait, hold up, c’mon bro, don’t be like that!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  I do have something to tell you, so don’t hang up, man! 
+    <t xml:space="preserve">[name="Thorns"]  If you have something to say, spit it out already. Otherwise, I'm hanging up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Wait, hold up, c'mon bro, don't be like that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  I do have something to tell you, so don't hang up, man! 
 </t>
   </si>
   <si>
@@ -3184,11 +3184,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  If you wanted to come that badly, why aren’t you here?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Because I can’t, man! Did you think I wanted to stay behind?
+    <t xml:space="preserve">[name="Thorns"]  If you wanted to come that badly, why aren't you here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Because I can't, man! Did you think I wanted to stay behind?
 </t>
   </si>
   <si>
@@ -3196,15 +3196,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  Stop. Don’t tell me about your missions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Eh, it’s nothing classified. But still, there is that one thing that’s rather...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  If it’s important, get to the point. Thirty words or less.
+    <t xml:space="preserve">[name="Thorns"]  Stop. Don't tell me about your missions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Eh, it's nothing classified. But still, there is that one thing that's rather...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  If it's important, get to the point. Thirty words or less.
 </t>
   </si>
   <si>
@@ -3224,11 +3224,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  I’m hanging up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Fine, fine, I’ll cut to the chase!
+    <t xml:space="preserve">[name="Thorns"]  I'm hanging up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Fine, fine, I'll cut to the chase!
 </t>
   </si>
   <si>
@@ -3236,7 +3236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  The source isn’t that reliable but there might be some trouble at this music festival but since I know you don’t really care about that please ask for an autograph if you happen to bump into anyone from Alive Until Sunset! Big thanks in advance!
+    <t xml:space="preserve">[name="Elysium"]  The source isn't that reliable but there might be some trouble at this music festival but since I know you don't really care about that please ask for an autograph if you happen to bump into anyone from Alive Until Sunset! Big thanks in advance!
 </t>
   </si>
   <si>
@@ -3260,7 +3260,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Wait a sec. Did you need something... Disturbing the work environment? What are you talking ab— ...Aaaah, my bad, ignore what I just said, seriously, it’s my fault, please stoppp—
+    <t xml:space="preserve">[name="Elysium"]  Wait a sec. Did you need something... Disturbing the work environment? What are you talking ab— ...Aaaah, my bad, ignore what I just said, seriously, it's my fault, please stoppp—
 </t>
   </si>
   <si>
@@ -3280,11 +3280,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Provence"]  The temperature here in Siesta seems even higher than I expected, which is weird... Hey, Skyfire, don’t you think so too?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Skyfire"]  Considering the way we’re dressed, it’d be stranger not to be hot.
+    <t xml:space="preserve">[name="Provence"]  The temperature here in Siesta seems even higher than I expected, which is weird... Hey, Skyfire, don't you think so too?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Skyfire"]  Considering the way we're dressed, it'd be stranger not to be hot.
 </t>
   </si>
   <si>
@@ -3292,15 +3292,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Provence"]  Everyone’s too dressed up anyway. Someone might seriously get heat stroke like this, so let’s get changed already... Besides, I heard we might have a chance to head down to the beach, so I brought a swimsuit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Skyfire"]  Hold up, not yet! Weren’t we going to go to the base of the volcano? You’ll have to wait until we get back first!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Provence"]  Let’s hurry up and get it over with then. I want to kick back and relax on the beach too, y’know. Not every day we get a chance like this!
+    <t xml:space="preserve">[name="Provence"]  Everyone's too dressed up anyway. Someone might seriously get heat stroke like this, so let's get changed already... Besides, I heard we might have a chance to head down to the beach, so I brought a swimsuit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Skyfire"]  Hold up, not yet! Weren't we going to go to the base of the volcano? You'll have to wait until we get back first!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Provence"]  Let's hurry up and get it over with then. I want to kick back and relax on the beach too, y'know. Not every day we get a chance like this!
 </t>
   </si>
   <si>
@@ -3312,15 +3312,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  ...It doesn’t smell like the sea here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alty"]  Phew, how many songs was that? We still have another performance tonight. Don’t get all excited and blow your energy this early.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  No clue, but I’m still having a good time. Frost, you too, right?
+    <t xml:space="preserve">[name="Thorns"]  ...It doesn't smell like the sea here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alty"]  Phew, how many songs was that? We still have another performance tonight. Don't get all excited and blow your energy this early.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  No clue, but I'm still having a good time. Frost, you too, right?
 </t>
   </si>
   <si>
@@ -3328,11 +3328,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dan"]  Not like it matters. Nothing’s going to burn us out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alty"]  Ahaha... Yeah, I guess that’s true.
+    <t xml:space="preserve">[name="Dan"]  Not like it matters. Nothing's going to burn us out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alty"]  Ahaha... Yeah, I guess that's true.
 </t>
   </si>
   <si>
@@ -3340,7 +3340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  Let’s party hard! !
+    <t xml:space="preserve">[name="Alty"]  Let's party hard! !
 </t>
   </si>
   <si>
@@ -3352,7 +3352,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  (Something’s weird about them. Can’t put my finger on it though. )
+    <t xml:space="preserve">[name="Thorns"]  (Something's weird about them. Can't put my finger on it though. )
 </t>
   </si>
   <si>
@@ -3364,7 +3364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bodyguard B"]  Hurry up! After them, they couldn’t have gotten far!
+    <t xml:space="preserve">[name="Bodyguard B"]  Hurry up! After them, they couldn't have gotten far!
 </t>
   </si>
   <si>
@@ -3380,7 +3380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fan C"]  Who cares about those people? It’s time for the next song! Woooah, it's the first song off their album Deep Color in the Sea!
+    <t xml:space="preserve">[name="Fan C"]  Who cares about those people? It's time for the next song! Woooah, it's the first song off their album Deep Color in the Sea!
 </t>
   </si>
   <si>
@@ -3392,7 +3392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  (Based on the way they’re dressed, they’re no ordinary group of civilians...)
+    <t xml:space="preserve">[name="Thorns"]  (Based on the way they're dressed, they're no ordinary group of civilians...)
 </t>
   </si>
   <si>
@@ -3404,7 +3404,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  What’s the hurry?
+    <t xml:space="preserve">[name="Thorns"]  What's the hurry?
 </t>
   </si>
   <si>
@@ -3412,31 +3412,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vigna"]  Oh, it’s Thorns... Don’t scare me like that... Anyway, since you’re here, does that mean you’re also a fan of Alive Until Sunset?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Vigna"]  Right, I just remembered, you’re also Ægirian. Feels like every Ægir I’ve met has some special connection with them. The sea they sing about is so much more beautiful and intense than the waves of Siesta!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Vigna"]  Ah, crap, that’s not what I’m supposed to be talking about!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Vigna"]  The Doctor and the others seem to be in a bit of a pickle, so I’m on my way to help out! Since you’re already here, don’t just stand around, let’s go help out—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  There’s no need for me to go.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Vigna"]  Huh? Why’s that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  They have the old geezer from Ursus with them this time. They’ll be fine.
+    <t xml:space="preserve">[name="Vigna"]  Oh, it's Thorns... Don't scare me like that... Anyway, since you're here, does that mean you're also a fan of Alive Until Sunset?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Vigna"]  Right, I just remembered, you're also Ægirian. Feels like every Ægir I've met has some special connection with them. The sea they sing about is so much more beautiful and intense than the waves of Siesta!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Vigna"]  Ah, crap, that's not what I'm supposed to be talking about!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Vigna"]  The Doctor and the others seem to be in a bit of a pickle, so I'm on my way to help out! Since you're already here, don't just stand around, let's go help out—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  There's no need for me to go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Vigna"]  Huh? Why's that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  They have the old geezer from Ursus with them this time. They'll be fine.
 </t>
   </si>
   <si>
@@ -3452,15 +3452,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  Until I’ve received specific instructions, there is no need for me to participate in your operation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  Don’t underestimate the Doctor and rush to your own arbitrary decisions. You may end up causing more harm than good.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  That’s what I’ve inferred. Are there any issues?
+    <t xml:space="preserve">[name="Thorns"]  Until I've received specific instructions, there is no need for me to participate in your operation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  Don't underestimate the Doctor and rush to your own arbitrary decisions. You may end up causing more harm than good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  That's what I've inferred. Are there any issues?
 </t>
   </si>
   <si>
@@ -3480,11 +3480,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vigna"]  You and I. We definitely aren’t getting along! Imagine having to think that much every time anybody asks you something!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Vigna"]  Oops, I don’t even know why I’m talking to you. The Doctor asked for my help, not yours. Right?
+    <t xml:space="preserve">[name="Vigna"]  You and I. We definitely aren't getting along! Imagine having to think that much every time anybody asks you something!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Vigna"]  Oops, I don't even know why I'm talking to you. The Doctor asked for my help, not yours. Right?
 </t>
   </si>
   <si>
@@ -3492,15 +3492,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  What’s with her tone?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  I don’t get it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Male Tourist"]  Have you heard, there’s a barbecue stall in the food court by the beach? They’re having a half-off deal, and the line’s snaking all the way out to the street!
+    <t xml:space="preserve">[name="Thorns"]  What's with her tone?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  I don't get it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Male Tourist"]  Have you heard, there's a barbecue stall in the food court by the beach? They're having a half-off deal, and the line's snaking all the way out to the street!
 </t>
   </si>
   <si>
@@ -3508,35 +3508,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Female Tourist"]  Barbecue, in this weather? It’s way too hot, I think I’ll pass...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Male Tourist"]  Hey, don’t be like that. Is there anything better for the fiery atmosphere of this music festival than some barbecue on the hot beach next to a raging charcoal fire?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Male Tourist"]  And with so many people lined up, I bet the flavor’s out of this world! It’d be a shame not to give it a try!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Male Tourist"]  We’re on vacation, and we came all the way out here. C’mon, my treat!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Female Tourist"]  You’re talking just like my aunts and uncles... But fine, since you’re so worked up about this, let’s go check it out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Female Tourist"]  Huh? What’s the sound over there?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="AUS"]  What did y’all say?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="AUS"]  C’mon, louder! I can’t hear you—
+    <t xml:space="preserve">[name="Female Tourist"]  Barbecue, in this weather? It's way too hot, I think I'll pass...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Male Tourist"]  Hey, don't be like that. Is there anything better for the fiery atmosphere of this music festival than some barbecue on the hot beach next to a raging charcoal fire?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Male Tourist"]  And with so many people lined up, I bet the flavor's out of this world! It'd be a shame not to give it a try!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Male Tourist"]  We're on vacation, and we came all the way out here. C'mon, my treat!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Female Tourist"]  You're talking just like my aunts and uncles... But fine, since you're so worked up about this, let's go check it out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Female Tourist"]  Huh? What's the sound over there?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="AUS"]  What did y'all say?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="AUS"]  C'mon, louder! I can't hear you—
 </t>
   </si>
   <si>
@@ -3552,7 +3552,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Female Tourist"]  Don’t you think that’s much more interesting than some barbecue? Look at all the people there - what if that’s some famous musician...
+    <t xml:space="preserve">[name="Female Tourist"]  Don't you think that's much more interesting than some barbecue? Look at all the people there - what if that's some famous musician...
 </t>
   </si>
   <si>
@@ -3568,19 +3568,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Male Tourist"]  Woah, that’s rad! They’re way too awesome! !
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Female Tourist"]  I’ve never heard this band before! The scene here is even better than I imagined...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Female Tourist"]  I knew I made the right call. Enjoying some good music is way better than barbecue in the middle of the summer! I don’t know when they’re releasing their next album, but I’ll definitely buy it!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Male Tourist"]  I see how it is. You’re just not into barbecue...
+    <t xml:space="preserve">[name="Male Tourist"]  Woah, that's rad! They're way too awesome! !
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Female Tourist"]  I've never heard this band before! The scene here is even better than I imagined...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Female Tourist"]  I knew I made the right call. Enjoying some good music is way better than barbecue in the middle of the summer! I don't know when they're releasing their next album, but I'll definitely buy it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Male Tourist"]  I see how it is. You're just not into barbecue...
 </t>
   </si>
   <si>
@@ -3588,7 +3588,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Male Tourist"]  Alright, let’s drop it. By the way, where’s your purse?
+    <t xml:space="preserve">[name="Male Tourist"]  Alright, let's drop it. By the way, where's your purse?
 </t>
   </si>
   <si>
@@ -3596,7 +3596,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Female Tourist"]  I could’ve sworn I had it with me...
+    <t xml:space="preserve">[name="Female Tourist"]  I could've sworn I had it with me...
 </t>
   </si>
   <si>
@@ -3612,7 +3612,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  Stop your sniveling. It’s not broken.
+    <t xml:space="preserve">[name="Thorns"]  Stop your sniveling. It's not broken.
 </t>
   </si>
   <si>
@@ -3632,11 +3632,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  Two watches, four wallets, and a woman’s bracelet. It seems that being immersed in music can indeed cause one to let her guard down. Everyone is alike in that regard.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  It must’ve been quite easy to get your hands on these things. Otherwise, you wouldn’t have the gall to do it again and again.
+    <t xml:space="preserve">[name="Thorns"]  Two watches, four wallets, and a woman's bracelet. It seems that being immersed in music can indeed cause one to let her guard down. Everyone is alike in that regard.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  It must've been quite easy to get your hands on these things. Otherwise, you wouldn't have the gall to do it again and again.
 </t>
   </si>
   <si>
@@ -3672,7 +3672,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unremarkable Tourist"]  Let me go right now or I’m reporting you to—
+    <t xml:space="preserve">[name="Unremarkable Tourist"]  Let me go right now or I'm reporting you to—
 </t>
   </si>
   <si>
@@ -3684,7 +3684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Male Tourist"]  Um, Mister, of course, we believe you’re in the right, but how do you know where these other victims are?
+    <t xml:space="preserve">[name="Male Tourist"]  Um, Mister, of course, we believe you're in the right, but how do you know where these other victims are?
 </t>
   </si>
   <si>
@@ -3700,7 +3700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  I made sure of this when I saw him strike the second time. I then followed him for five blocks to find his group’s hideout.
+    <t xml:space="preserve">[name="Thorns"]  I made sure of this when I saw him strike the second time. I then followed him for five blocks to find his group's hideout.
 </t>
   </si>
   <si>
@@ -3708,7 +3708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  Don’t act so surprised. You’ll be able to see the others soon, at the police station.
+    <t xml:space="preserve">[name="Thorns"]  Don't act so surprised. You'll be able to see the others soon, at the police station.
 </t>
   </si>
   <si>
@@ -3720,23 +3720,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unremarkable Tourist"]  ...You even caught Old Tom? Tch... Should’ve said so earlier. All right, if you’re that capable, I’ll give up this time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Male Tourist"]  Heh, you’ve been caught, and you’re still talking big?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unremarkable Tourist"]  Siesta is our city. What the hell do you know? So what if I’m caught? I’m just gonna get locked up for a bit...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Male Tourist"]  You piece of... Forget it, there’s nothing worth saying to someone like you. Hey, Mister. I really can’t thank you enough.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  Don’t worry about it.
+    <t xml:space="preserve">[name="Unremarkable Tourist"]  ...You even caught Old Tom? Tch... Should've said so earlier. All right, if you're that capable, I'll give up this time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Male Tourist"]  Heh, you've been caught, and you're still talking big?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unremarkable Tourist"]  Siesta is our city. What the hell do you know? So what if I'm caught? I'm just gonna get locked up for a bit...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Male Tourist"]  You piece of... Forget it, there's nothing worth saying to someone like you. Hey, Mister. I really can't thank you enough.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  Don't worry about it.
 </t>
   </si>
   <si>
@@ -3744,7 +3744,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  I don’t need any reward.
+    <t xml:space="preserve">[name="Thorns"]  I don't need any reward.
 </t>
   </si>
   <si>
@@ -3752,19 +3752,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Female Tourist"]  Don’t say that! Let me show some appreciation!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Female Tourist"]  Besides, you’re pretty cute. Want to get barbecue together?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Female Tourist"]  I heard there’s a stall with a line around the block, the food there is supposed to be amazing. Since we’re on vacation anyway, how about heading down together to give it a try? I’ll treat you~!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Male Tourist"]  Wait a second... Didn’t you just say you weren’t into barbecue? ?
+    <t xml:space="preserve">[name="Female Tourist"]  Don't say that! Let me show some appreciation!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Female Tourist"]  Besides, you're pretty cute. Want to get barbecue together?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Female Tourist"]  I heard there's a stall with a line around the block, the food there is supposed to be amazing. Since we're on vacation anyway, how about heading down together to give it a try? I'll treat you~!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Male Tourist"]  Wait a second... Didn't you just say you weren't into barbecue? ?
 </t>
   </si>
   <si>
@@ -3772,7 +3772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Cutter"]  That should wrap it up for this batch of customers. Do we still have time? Also, the fire’s starting to die down. I need to add more charcoal.
+    <t xml:space="preserve">[name="Cutter"]  That should wrap it up for this batch of customers. Do we still have time? Also, the fire's starting to die down. I need to add more charcoal.
 </t>
   </si>
   <si>
@@ -3780,11 +3780,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  Is this the barbecue stall everyone’s been talking about? Hm, I must say, this does look quite promising.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  But, the charcoal you’re using...
+    <t xml:space="preserve">[name="Thorns"]  Is this the barbecue stall everyone's been talking about? Hm, I must say, this does look quite promising.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  But, the charcoal you're using...
 </t>
   </si>
   <si>
@@ -3792,15 +3792,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ifrit"]  Hold up, that weapon of yours. I swear I’ve seen it before... Lemme think... Eyy, no, no hints! I know I’ve seen you somewhere before!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ifrit"]  Nnnnnnngh... Aren’t you the one following the Doctor around a while ago? Ah, no, that’s not right. That guy doesn’t look like you. ‘cept he was wearing a black cloak, and his sword wasn’t that long.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ifrit"]  I got it! You’re the guy who was running circles around the deck yelling his head off, right?! I knew it! I’m sure of it! The one time that mean lady from Yen ran out screaming all those bad words, she was scolding you, wasn’t she?
+    <t xml:space="preserve">[name="Ifrit"]  Hold up, that weapon of yours. I swear I've seen it before... Lemme think... Eyy, no, no hints! I know I've seen you somewhere before!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ifrit"]  Nnnnnnngh... Aren't you the one following the Doctor around a while ago? Ah, no, that's not right. That guy doesn't look like you. 'cept he was wearing a black cloak, and his sword wasn't that long.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ifrit"]  I got it! You're the guy who was running circles around the deck yelling his head off, right?! I knew it! I'm sure of it! The one time that mean lady from Yen ran out screaming all those bad words, she was scolding you, wasn't she?
 </t>
   </si>
   <si>
@@ -3808,7 +3808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Cutter"]  I actually remember what he was yelling: 'I’m the one who drank your smoothie!'
+    <t xml:space="preserve">[name="Cutter"]  I actually remember what he was yelling: 'I'm the one who drank your smoothie!'
 </t>
   </si>
   <si>
@@ -3816,11 +3816,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ifrit"]  Why was he yelling something like that then? Makes no sense. If you’re gonna do something bad, why shout it out to everyone?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ifrit"]  And how’d you find out anyway, big-ears?
+    <t xml:space="preserve">[name="Ifrit"]  Why was he yelling something like that then? Makes no sense. If you're gonna do something bad, why shout it out to everyone?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ifrit"]  And how'd you find out anyway, big-ears?
 </t>
   </si>
   <si>
@@ -3840,15 +3840,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  Had you turned it over thirty-six seconds ago, you might’ve still been able to achieve a medium-well state. If you turn off the heat now, you could still have a chance to save the flavor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  Also, if I’m not mistaken, the charcoal you just added to the stove is damp, and within the next ten seconds, there is a 73% probability that it will explode.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  Hmm, considering the current state of the smoke and the attendant sparks, I’d have to increase that probability by ten percentage points.
+    <t xml:space="preserve">[name="Thorns"]  Had you turned it over thirty-six seconds ago, you might've still been able to achieve a medium-well state. If you turn off the heat now, you could still have a chance to save the flavor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  Also, if I'm not mistaken, the charcoal you just added to the stove is damp, and within the next ten seconds, there is a 73% probability that it will explode.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  Hmm, considering the current state of the smoke and the attendant sparks, I'd have to increase that probability by ten percentage points.
 </t>
   </si>
   <si>
@@ -3864,35 +3864,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ifrit"]  Damn it, why does this busted old stove just decide to explode? Can’t you control it a little better? I barely gave it any heat at all!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Cutter"]  *cough* *cough* Sorry, it’s my fault. I shouldn’t have tried to do that after all. I thought it'd be fine if I just helped grill something…
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ifrit"]  Huh? Nah, you didn’t do anything wrong.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Cutter"]  I’m very sorry, Ifrit, Mr. Thorns. And to all our guests as well. I will compensate you for your losses.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Cutter"]  ...I’m not going to hold you back any more, Ifrit. It’s all you now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  In other words, you’re quitting? Just giving up?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Cutter"]  No. It’s not that I’m giving up, I just don’t want to cause any more trouble.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Cutter"]  This wouldn’t be the first time, or the second. It’s the same as when I was on the ship. Every time I enter the kitchen, there’s always some kind of accident. Every time, without fail...
+    <t xml:space="preserve">[name="Ifrit"]  Damn it, why does this busted old stove just decide to explode? Can't you control it a little better? I barely gave it any heat at all!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cutter"]  *cough* *cough* Sorry, it's my fault. I shouldn't have tried to do that after all. I thought it'd be fine if I just helped grill something...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ifrit"]  Huh? Nah, you didn't do anything wrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cutter"]  I'm very sorry, Ifrit, Mr. Thorns. And to all our guests as well. I will compensate you for your losses.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cutter"]  ...I'm not going to hold you back any more, Ifrit. It's all you now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  In other words, you're quitting? Just giving up?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cutter"]  No. It's not that I'm giving up, I just don't want to cause any more trouble.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cutter"]  This wouldn't be the first time, or the second. It's the same as when I was on the ship. Every time I enter the kitchen, there's always some kind of accident. Every time, without fail...
 </t>
   </si>
   <si>
@@ -3904,7 +3904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  If there’s something you don’t know, go learn it. If you fail once, fail a second time. If you fail a second time, fail a third time. Now that you know the cause of the accident, avoid it next time.
+    <t xml:space="preserve">[name="Thorns"]  If there's something you don't know, go learn it. If you fail once, fail a second time. If you fail a second time, fail a third time. Now that you know the cause of the accident, avoid it next time.
 </t>
   </si>
   <si>
@@ -3928,15 +3928,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ifrit"]  I said, how long are you going to slack off?! C’mon, damn it! Hold this! I wanna get the stove set up again!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ifrit"]  Stop gawking and get back to work already! You’re the one who ran over here asking to help out, so don’t you dare think of slinking off!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ifrit"]  Hurry it up! Once it’s done, you grill the next batch of meat. I’ll change the charcoal!
+    <t xml:space="preserve">[name="Ifrit"]  I said, how long are you going to slack off?! C'mon, damn it! Hold this! I wanna get the stove set up again!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ifrit"]  Stop gawking and get back to work already! You're the one who ran over here asking to help out, so don't you dare think of slinking off!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ifrit"]  Hurry it up! Once it's done, you grill the next batch of meat. I'll change the charcoal!
 </t>
   </si>
   <si>
@@ -3944,23 +3944,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ifrit"]  Got a problem? Nobody ever said you can’t. Or, did you decide that yourself?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ifrit"]  Tch, what a pain. This box is buried so damned deep in the sand, and it’s so heavy you can’t even dig it out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ifrit"]  Hey, where’s the pepper? Why the hell is there no more pepper? Argh...! This is pissing me off!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="? ??"]  Excuse me, I’ve heard of some delicious barbecue being sold here. Would you happen to know where that is?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="? ??"]  Oh, it’s Ifrit and Cutter.
+    <t xml:space="preserve">[name="Ifrit"]  Got a problem? Nobody ever said you can't. Or, did you decide that yourself?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ifrit"]  Tch, what a pain. This box is buried so damned deep in the sand, and it's so heavy you can't even dig it out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ifrit"]  Hey, where's the pepper? Why the hell is there no more pepper? Argh...! This is pissing me off!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="? ??"]  Excuse me, I've heard of some delicious barbecue being sold here. Would you happen to know where that is?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="? ??"]  Oh, it's Ifrit and Cutter.
 </t>
   </si>
   <si>
@@ -3984,11 +3984,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ifrit"]  I always thought you were only good for playing with sand, but turns out you’re pretty handy!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Cutter"]  Ifrit, that’s rude...
+    <t xml:space="preserve">[name="Ifrit"]  I always thought you were only good for playing with sand, but turns out you're pretty handy!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Cutter"]  Ifrit, that's rude...
 </t>
   </si>
   <si>
@@ -4024,15 +4024,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ifrit"]  Who the hell wants to play in the sand? I’m not some kid!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beeswax"]  Really? I would very much like to go. How lucky. I’m also a bit homesick, but I cannot return until I finish my journey...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ifrit"]  Homesick? I dunno what that’s like, but as long as I’m with Silence and Saria, anywhere is home. Is Rhodes Island not good enough?
+    <t xml:space="preserve">[name="Ifrit"]  Who the hell wants to play in the sand? I'm not some kid!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beeswax"]  Really? I would very much like to go. How lucky. I'm also a bit homesick, but I cannot return until I finish my journey...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ifrit"]  Homesick? I dunno what that's like, but as long as I'm with Silence and Saria, anywhere is home. Is Rhodes Island not good enough?
 </t>
   </si>
   <si>
@@ -4040,7 +4040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ifrit"]  Tch... What’s the difference then? Explain it so I can understand!
+    <t xml:space="preserve">[name="Ifrit"]  Tch... What's the difference then? Explain it so I can understand!
 </t>
   </si>
   <si>
@@ -4048,11 +4048,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beeswax"]  For me, I often... dream of my home. Of a shaking, golden cradle. Of my mother’s dry and rough hand touching my cheek...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beeswax"]  This may be nothing more than sand, and it might not be very comforting at all. But in my dreams, there’s still something nostalgic about it.
+    <t xml:space="preserve">[name="Beeswax"]  For me, I often... dream of my home. Of a shaking, golden cradle. Of my mother's dry and rough hand touching my cheek...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beeswax"]  This may be nothing more than sand, and it might not be very comforting at all. But in my dreams, there's still something nostalgic about it.
 </t>
   </si>
   <si>
@@ -4072,7 +4072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Cutter"]  All right, let’s cut the chatter. I’ll rebuild the stove rack, so I’ll need you to prepare the new charcoal fire, Ifrit.
+    <t xml:space="preserve">[name="Cutter"]  All right, let's cut the chatter. I'll rebuild the stove rack, so I'll need you to prepare the new charcoal fire, Ifrit.
 </t>
   </si>
   <si>
@@ -4080,11 +4080,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ifrit"]  You’re right. Let’s stop thinking about stuff and just get back to work.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ifrit"]  Oh, that guy’s name is Thorns? You’d never guess it from his looks, but he’s actually a pretty nice guy.
+    <t xml:space="preserve">[name="Ifrit"]  You're right. Let's stop thinking about stuff and just get back to work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ifrit"]  Oh, that guy's name is Thorns? You'd never guess it from his looks, but he's actually a pretty nice guy.
 </t>
   </si>
   <si>
@@ -4092,23 +4092,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ifrit"]  Kind-hearted? That’s a weird way to put it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beeswax"]  It’s true! I just saw him stop a group of people who were going to harass the Doctor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beeswax"]  Vigna told me those people were trying to stir up trouble, but she also said there’s nobody on the other side capable of fighting, so we have nothing to worry about.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beeswax"]  I was going to go help, but it seems like that won’t be needed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beeswax"]  Oh, that’s right, Mr. Thorns also caught a thief!
+    <t xml:space="preserve">[name="Ifrit"]  Kind-hearted? That's a weird way to put it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beeswax"]  It's true! I just saw him stop a group of people who were going to harass the Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beeswax"]  Vigna told me those people were trying to stir up trouble, but she also said there's nobody on the other side capable of fighting, so we have nothing to worry about.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beeswax"]  I was going to go help, but it seems like that won't be needed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beeswax"]  Oh, that's right, Mr. Thorns also caught a thief!
 </t>
   </si>
   <si>
@@ -4116,7 +4116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Cutter"]  I thought he was the kind of person I’d never get along with, but it turns out I was jumping to conclusions.
+    <t xml:space="preserve">[name="Cutter"]  I thought he was the kind of person I'd never get along with, but it turns out I was jumping to conclusions.
 </t>
   </si>
   <si>
@@ -4124,7 +4124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  It’s best to make sure that the person you’re discussing is not within earshot before speaking so loudly.
+    <t xml:space="preserve">[name="Thorns"]  It's best to make sure that the person you're discussing is not within earshot before speaking so loudly.
 </t>
   </si>
   <si>
@@ -4144,7 +4144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  I’ll be going. No need to thank me.
+    <t xml:space="preserve">[name="Thorns"]  I'll be going. No need to thank me.
 </t>
   </si>
   <si>
@@ -4160,7 +4160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  The sea? That’s not quite right. Compared to the sea, this is too humane. Other than the slight salinity of the water, what else tastes of the sea?
+    <t xml:space="preserve">[name="Thorns"]  The sea? That's not quite right. Compared to the sea, this is too humane. Other than the slight salinity of the water, what else tastes of the sea?
 </t>
   </si>
   <si>
@@ -4168,15 +4168,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  Hey, I know you’re there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  ....Hey. Speak. You’ve been standing behind me for quite some time now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  No way! How’d you catch me...? You must be pretty awesome to be able to sniff me out.
+    <t xml:space="preserve">[name="Thorns"]  Hey, I know you're there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  ....Hey. Speak. You've been standing behind me for quite some time now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  No way! How'd you catch me...? You must be pretty awesome to be able to sniff me out.
 </t>
   </si>
   <si>
@@ -4192,11 +4192,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  Not really. Don’t change the subject.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  Aww, that’s too bad then. Do you want a CD then?
+    <t xml:space="preserve">[name="Thorns"]  Not really. Don't change the subject.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  Aww, that's too bad then. Do you want a CD then?
 </t>
   </si>
   <si>
@@ -4204,7 +4204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  I’m just joking. Who just keeps CDs on them anyway? Has anyone ever told you you’re kind of a wet blanket?
+    <t xml:space="preserve">[name="Aya"]  I'm just joking. Who just keeps CDs on them anyway? Has anyone ever told you you're kind of a wet blanket?
 </t>
   </si>
   <si>
@@ -4212,11 +4212,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  Listen, you’re not a wet blanket.  You just don’t care.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  I’m here to appreciate the ocean.
+    <t xml:space="preserve">[name="Aya"]  Listen, you're not a wet blanket.  You just don't care.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  I'm here to appreciate the ocean.
 </t>
   </si>
   <si>
@@ -4228,7 +4228,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  Siesta’s beach is beautiful. The more beautiful it is, the more I’m convinced it’s not like the sea at all. The place we come from is nothing like this at all.
+    <t xml:space="preserve">[name="Aya"]  Siesta's beach is beautiful. The more beautiful it is, the more I'm convinced it's not like the sea at all. The place we come from is nothing like this at all.
 </t>
   </si>
   <si>
@@ -4244,11 +4244,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  You still don’t get it? Don’t dwell on it too much, I’m just shooting from the hip here. I say whatever’s on my mind. It’s a bad habit I can’t kick.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  Don’t avoid the question. You’re an Ægir.
+    <t xml:space="preserve">[name="Aya"]  You still don't get it? Don't dwell on it too much, I'm just shooting from the hip here. I say whatever's on my mind. It's a bad habit I can't kick.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  Don't avoid the question. You're an Ægir.
 </t>
   </si>
   <si>
@@ -4268,7 +4268,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  What, weren’t you going to ask me something? This is a really special opportunity, you know~
+    <t xml:space="preserve">[name="Aya"]  What, weren't you going to ask me something? This is a really special opportunity, you know~
 </t>
   </si>
   <si>
@@ -4276,15 +4276,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  Didn’t we all come here to waste some time? Being able to treat yourself and waste time is what I call a good life.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  If you’re out there just trying to survive, you don’t get a chance to waste anything.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  Maybe you’re right.
+    <t xml:space="preserve">[name="Aya"]  Didn't we all come here to waste some time? Being able to treat yourself and waste time is what I call a good life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  If you're out there just trying to survive, you don't get a chance to waste anything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  Maybe you're right.
 </t>
   </si>
   <si>
@@ -4304,35 +4304,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  It’s a reward for talking with me, okay? It’s not every day I meet someone like me, from the old country, in the outside world.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  No. You’re wrong...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  I’m not like you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thorns opens his eyes wide and looks directly into the singer’s pupils.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The singer blinks, her gaze following Thorns’s hand as it slowly crawls towards the hilt of his sword.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">—You didn’t even try to hide it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  You aren’t a big fan of our songs... I know that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  But I’ll still give you my autograph.
+    <t xml:space="preserve">[name="Aya"]  It's a reward for talking with me, okay? It's not every day I meet someone like me, from the old country, in the outside world.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  No. You're wrong...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  I'm not like you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thorns opens his eyes wide and looks directly into the singer's pupils.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The singer blinks, her gaze following Thorns's hand as it slowly crawls towards the hilt of his sword.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">—You didn't even try to hide it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  You aren't a big fan of our songs... I know that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  But I'll still give you my autograph.
 </t>
   </si>
   <si>
@@ -4340,7 +4340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  Because you like to dance. There’s no way someone who likes to dance could be a bad person.
+    <t xml:space="preserve">[name="Aya"]  Because you like to dance. There's no way someone who likes to dance could be a bad person.
 </t>
   </si>
   <si>
@@ -4348,7 +4348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  Don’t be like that. It’s just something I’ve learned from a whole bunch of people. We’ve all spent a long time on this patch of dirt, and we’ve also learned a lot.
+    <t xml:space="preserve">[name="Aya"]  Don't be like that. It's just something I've learned from a whole bunch of people. We've all spent a long time on this patch of dirt, and we've also learned a lot.
 </t>
   </si>
   <si>
@@ -4356,7 +4356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  But you’ve never known its gentle side. Oh. You’re not going to miss home.
+    <t xml:space="preserve">[name="Aya"]  But you've never known its gentle side. Oh. You're not going to miss home.
 </t>
   </si>
   <si>
@@ -4372,7 +4372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  I’ve drunk from it. I don’t swim in a lake. My ancestors went to Iberia, but they could not bear to part from the sea.
+    <t xml:space="preserve">[name="Thorns"]  I've drunk from it. I don't swim in a lake. My ancestors went to Iberia, but they could not bear to part from the sea.
 </t>
   </si>
   <si>
@@ -4384,11 +4384,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  'I’ve heard the ripples of your falling tears~♪ Your darkest nightmares, your deepest fears~♪ Your heart cracked into petals of blood...♪'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  What’s that song?
+    <t xml:space="preserve">[name="Aya"]  'I've heard the ripples of your falling tears~♪ Your darkest nightmares, your deepest fears~♪ Your heart cracked into petals of blood...♪'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  What's that song?
 </t>
   </si>
   <si>
@@ -4396,7 +4396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  But, I think you’re right, Mister. I think you ought to be afraid of it.
+    <t xml:space="preserve">[name="Aya"]  But, I think you're right, Mister. I think you ought to be afraid of it.
 </t>
   </si>
   <si>
@@ -4424,7 +4424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">To chase after your shadow, is to chase after naught~♪ With thund’rous voices they’ll rise and call your name~♪ And when they catch your scent, they’ll demand to hear your shame~♪' 
+    <t xml:space="preserve">To chase after your shadow, is to chase after naught~♪ With thund'rous voices they'll rise and call your name~♪ And when they catch your scent, they'll demand to hear your shame~♪' 
 </t>
   </si>
   <si>
@@ -4432,7 +4432,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  It is here. Let’s go. Don’t look back.
+    <t xml:space="preserve">[name="Aya"]  It is here. Let's go. Don't look back.
 </t>
   </si>
   <si>
@@ -4472,7 +4472,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  Under the surface, there’s a waterway that connects to the ocean... It isn’t strange that it gives off some ocean vibes. 
+    <t xml:space="preserve">[name="Aya"]  Under the surface, there's a waterway that connects to the ocean... It isn't strange that it gives off some ocean vibes. 
 </t>
   </si>
   <si>
@@ -4480,23 +4480,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  Hmph. I couldn’t hypnotize you with my song. That makes me a bit jealous.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  You’re the one who should go.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  Huh? Ah... that couldn’t be, yeah? Look, you know that...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  That’s not something that should be here. If you go now, you won’t die.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  I know, but... aren’t you the one who’s supposed to leave right now?
+    <t xml:space="preserve">[name="Aya"]  Hmph. I couldn't hypnotize you with my song. That makes me a bit jealous.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  You're the one who should go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  Huh? Ah... that couldn't be, yeah? Look, you know that...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  That's not something that should be here. If you go now, you won't die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  I know, but... aren't you the one who's supposed to leave right now?
 </t>
   </si>
   <si>
@@ -4520,7 +4520,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  Don’t be scared. It shouldn’t be surprising that the ocean knows our names.
+    <t xml:space="preserve">[name="Aya"]  Don't be scared. It shouldn't be surprising that the ocean knows our names.
 </t>
   </si>
   <si>
@@ -4536,7 +4536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  Then what’s your deal then...? Hey, are you having trouble breathing?
+    <t xml:space="preserve">[name="Aya"]  Then what's your deal then...? Hey, are you having trouble breathing?
 </t>
   </si>
   <si>
@@ -4552,11 +4552,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I fled my homeland. I abandoned my cradle. I’ve forgotten its stories. But I know how it feels.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I believe what I’ve heard whispered in legend. Even in shallow dreams, I’ve felt the bite of swords rending their bodies.
+    <t xml:space="preserve">I fled my homeland. I abandoned my cradle. I've forgotten its stories. But I know how it feels.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I believe what I've heard whispered in legend. Even in shallow dreams, I've felt the bite of swords rending their bodies.
 </t>
   </si>
   <si>
@@ -4564,7 +4564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I am homesick. Rather, I’ve imagined it before. But I’ve never actually seen home.
+    <t xml:space="preserve">I am homesick. Rather, I've imagined it before. But I've never actually seen home.
 </t>
   </si>
   <si>
@@ -4600,7 +4600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  Maybe I’m getting a bit excited.
+    <t xml:space="preserve">[name="Thorns"]  Maybe I'm getting a bit excited.
 </t>
   </si>
   <si>
@@ -4628,15 +4628,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  Seems like you don’t plan to leave then. So, Mr. Ægir, are you confident you can survive?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  Will you show me then? I want to see the dance you’re about to dance, one that will paint the sea red...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  Yes, flourish the sword that weaves with your bounding steps! Spin, pirouette, and glide across the ocean’s surface! Whether you are torn apart or you tear It apart, the beginning or end of your story...
+    <t xml:space="preserve">[name="Aya"]  Seems like you don't plan to leave then. So, Mr. Ægir, are you confident you can survive?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  Will you show me then? I want to see the dance you're about to dance, one that will paint the sea red...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  Yes, flourish the sword that weaves with your bounding steps! Spin, pirouette, and glide across the ocean's surface! Whether you are torn apart or you tear It apart, the beginning or end of your story...
 </t>
   </si>
   <si>
@@ -4644,7 +4644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aya"]  I don’t know! I think it’s perfectly fine!
+    <t xml:space="preserve">[name="Aya"]  I don't know! I think it's perfectly fine!
 </t>
   </si>
   <si>
@@ -4652,11 +4652,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  ...As long as you’re not afraid, be my guest.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  It’s good to have an audience, no matter who you might be.
+    <t xml:space="preserve">[name="Thorns"]  ...As long as you're not afraid, be my guest.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  It's good to have an audience, no matter who you might be.
 </t>
   </si>
   <si>
@@ -4664,19 +4664,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  —I’d be honored.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  Ahaha, that’s not much of a line... But anyway, you have to live on, Mister.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aya"]  I can tell you really care about this. So you have to live on. Don’t die.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  I don’t plan to die. There’s a friend who wants your autograph, and I have to stay alive to bring it back.
+    <t xml:space="preserve">[name="Thorns"]  —I'd be honored.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  Ahaha, that's not much of a line... But anyway, you have to live on, Mister.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aya"]  I can tell you really care about this. So you have to live on. Don't die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  I don't plan to die. There's a friend who wants your autograph, and I have to stay alive to bring it back.
 </t>
   </si>
   <si>
@@ -4684,7 +4684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  No. Though I’ve mentioned Iberia, I’ve also mentioned the sea that my ancestors could not live without.
+    <t xml:space="preserve">[name="Thorns"]  No. Though I've mentioned Iberia, I've also mentioned the sea that my ancestors could not live without.
 </t>
   </si>
   <si>
